--- a/Assignments/MSPA401_Assignments_due.xlsx
+++ b/Assignments/MSPA401_Assignments_due.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NorthWestern_Courses\MSPA-401-Introduction-to-Statistical-Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NorthWestern_Courses\MSPA-401-Introduction-to-Statistical-Analysis\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,10 +90,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -200,6 +207,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -519,7 +538,7 @@
       <c r="B2" s="3">
         <v>43108</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="14">
         <v>43121</v>
       </c>
     </row>
@@ -530,7 +549,7 @@
       <c r="B3" s="9">
         <v>43108</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="15">
         <v>43121</v>
       </c>
     </row>
@@ -541,7 +560,7 @@
       <c r="B4" s="5">
         <v>43108</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="16">
         <v>43128</v>
       </c>
     </row>
@@ -552,7 +571,7 @@
       <c r="B5" s="3">
         <v>43122</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="14">
         <v>43135</v>
       </c>
     </row>
@@ -563,7 +582,7 @@
       <c r="B6" s="9">
         <v>43122</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="15">
         <v>43135</v>
       </c>
     </row>
@@ -574,7 +593,7 @@
       <c r="B7" s="7">
         <v>43108</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="17">
         <v>43142</v>
       </c>
     </row>
@@ -585,7 +604,7 @@
       <c r="B8" s="3">
         <v>43136</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="14">
         <v>43149</v>
       </c>
     </row>
@@ -596,7 +615,7 @@
       <c r="B9" s="9">
         <v>43136</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="15">
         <v>43149</v>
       </c>
     </row>
@@ -673,5 +692,6 @@
     <sortCondition ref="B2:B15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>